--- a/biology/Zoologie/Chalcides_ebneri/Chalcides_ebneri.xlsx
+++ b/biology/Zoologie/Chalcides_ebneri/Chalcides_ebneri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chalcides ebneri est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chalcides ebneri est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des environs de Fès au Maroc[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des environs de Fès au Maroc.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Richard Ebner (1885-1961)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Richard Ebner (1885-1961).
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Werner, 1931 : Ergebnisse einer zoologischen Forschungsreise nach Marokko. III. Unternommen 1930 mit Unterstützung der Akademie der Wissenschaften in Wien von Franz Werner und Richard Ebner. III. Amphibien und Reptilien. Sitzungsberichte der Kaiserliche Akademie der Wissenschaften in Wien, vol. 140, p. 271-318 (texte intégral).</t>
         </is>
